--- a/Equipment.xlsx
+++ b/Equipment.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t xml:space="preserve">Наименование товара</t>
   </si>
@@ -34,10 +34,13 @@
     <t xml:space="preserve">Камера аналог 5 мп</t>
   </si>
   <si>
-    <t xml:space="preserve">Регистратор аналоговый 2 Мп</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Реистратор аналоговый 5 Мп</t>
+    <t xml:space="preserve">Регистратор аналоговый 5 Мп 4 кан</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Реистратор аналоговый 5 Мп 8 кан</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Реистратор аналоговый 5 Мп 16 кан</t>
   </si>
   <si>
     <t xml:space="preserve">IP-камера компактная 2Мп</t>
@@ -77,6 +80,12 @@
   </si>
   <si>
     <t xml:space="preserve">PoE switch 8-PORTS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PoE switch 4-PORTS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Разъёмы RJ-45+питание</t>
   </si>
 </sst>
 </file>
@@ -187,15 +196,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B88"/>
+  <dimension ref="A1:B89"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
+      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="29.23"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="33.79"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -243,7 +252,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="0" t="n">
-        <v>3300</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -251,7 +260,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="0" t="n">
-        <v>4800</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -259,7 +268,7 @@
         <v>8</v>
       </c>
       <c r="B8" s="0" t="n">
-        <v>3800</v>
+        <v>4800</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -267,7 +276,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="0" t="n">
-        <v>5000</v>
+        <v>3800</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -275,7 +284,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="0" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -283,7 +292,7 @@
         <v>11</v>
       </c>
       <c r="B11" s="0" t="n">
-        <v>1600</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -291,7 +300,7 @@
         <v>12</v>
       </c>
       <c r="B12" s="0" t="n">
-        <v>1300</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -299,7 +308,7 @@
         <v>13</v>
       </c>
       <c r="B13" s="0" t="n">
-        <v>800</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -307,7 +316,7 @@
         <v>14</v>
       </c>
       <c r="B14" s="0" t="n">
-        <v>150</v>
+        <v>800</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -315,7 +324,7 @@
         <v>15</v>
       </c>
       <c r="B15" s="0" t="n">
-        <v>3000</v>
+        <v>150</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -323,7 +332,7 @@
         <v>16</v>
       </c>
       <c r="B16" s="0" t="n">
-        <v>35</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -331,7 +340,7 @@
         <v>17</v>
       </c>
       <c r="B17" s="0" t="n">
-        <v>75</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -339,11 +348,35 @@
         <v>18</v>
       </c>
       <c r="B18" s="0" t="n">
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="0" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" s="0" t="n">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" s="0" t="n">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" s="0" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="0" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Equipment.xlsx
+++ b/Equipment.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t xml:space="preserve">Наименование товара</t>
   </si>
@@ -86,6 +86,9 @@
   </si>
   <si>
     <t xml:space="preserve">Разъёмы RJ-45+питание</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Реистратор аналоговый 5 Мп 32 кан</t>
   </si>
 </sst>
 </file>
@@ -199,10 +202,10 @@
   <dimension ref="A1:B89"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
+      <selection pane="topLeft" activeCell="C25" activeCellId="0" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="33.79"/>
   </cols>
@@ -252,7 +255,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="0" t="n">
-        <v>15000</v>
+        <v>11630</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -373,6 +376,14 @@
       </c>
       <c r="B21" s="0" t="n">
         <v>70</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" s="0" t="n">
+        <v>16000</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/Equipment.xlsx
+++ b/Equipment.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t xml:space="preserve">Наименование товара</t>
   </si>
@@ -28,6 +28,9 @@
     <t xml:space="preserve">Цена,р</t>
   </si>
   <si>
+    <t xml:space="preserve">Index</t>
+  </si>
+  <si>
     <t xml:space="preserve">Камера аналог 2 мп(Sony)</t>
   </si>
   <si>
@@ -55,7 +58,7 @@
     <t xml:space="preserve">IP-камера  5Мп </t>
   </si>
   <si>
-    <t xml:space="preserve">Жесткий диск</t>
+    <t xml:space="preserve">Жесткий диск 1 ТБ</t>
   </si>
   <si>
     <t xml:space="preserve">SD-карта 32 Гб</t>
@@ -89,6 +92,12 @@
   </si>
   <si>
     <t xml:space="preserve">Реистратор аналоговый 5 Мп 32 кан</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Регистратор IP 9- портовый</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Витая пара руб./м</t>
   </si>
 </sst>
 </file>
@@ -199,13 +208,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B89"/>
+  <dimension ref="A1:C89"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C25" activeCellId="0" sqref="C25"/>
+      <selection pane="topLeft" activeCell="A38" activeCellId="0" sqref="A38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="33.79"/>
   </cols>
@@ -217,173 +226,261 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>2500</v>
       </c>
+      <c r="C2" s="0" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>2800</v>
       </c>
+      <c r="C3" s="0" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>5800</v>
       </c>
+      <c r="C4" s="0" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>7600</v>
       </c>
+      <c r="C5" s="0" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>11630</v>
       </c>
+      <c r="C6" s="0" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>3300</v>
       </c>
+      <c r="C7" s="0" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>4800</v>
       </c>
+      <c r="C8" s="0" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>3800</v>
       </c>
+      <c r="C9" s="0" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>5000</v>
       </c>
+      <c r="C10" s="0" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>4000</v>
       </c>
+      <c r="C11" s="0" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>1600</v>
       </c>
+      <c r="C12" s="0" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>1300</v>
       </c>
+      <c r="C13" s="0" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>800</v>
       </c>
+      <c r="C14" s="0" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>150</v>
       </c>
+      <c r="C15" s="0" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>3000</v>
       </c>
+      <c r="C16" s="0" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>35</v>
       </c>
+      <c r="C17" s="0" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>75</v>
       </c>
+      <c r="C18" s="0" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>5000</v>
       </c>
+      <c r="C19" s="0" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>3500</v>
       </c>
+      <c r="C20" s="0" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>70</v>
       </c>
+      <c r="C21" s="0" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>16000</v>
+      </c>
+      <c r="C22" s="0" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" s="0" t="n">
+        <v>8000</v>
+      </c>
+      <c r="C23" s="0" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="C24" s="0" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/Equipment.xlsx
+++ b/Equipment.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t xml:space="preserve">Наименование товара</t>
   </si>
@@ -98,6 +98,9 @@
   </si>
   <si>
     <t xml:space="preserve">Витая пара руб./м</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Жесткий диск 2 ТБ</t>
   </si>
 </sst>
 </file>
@@ -211,10 +214,10 @@
   <dimension ref="A1:C89"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A38" activeCellId="0" sqref="A38"/>
+      <selection pane="topLeft" activeCell="B31" activeCellId="0" sqref="B31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="33.79"/>
   </cols>
@@ -481,6 +484,17 @@
       </c>
       <c r="C24" s="0" t="n">
         <v>24</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" s="0" t="n">
+        <v>5800</v>
+      </c>
+      <c r="C25" s="0" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/Equipment.xlsx
+++ b/Equipment.xlsx
@@ -46,7 +46,7 @@
     <t xml:space="preserve">Реистратор аналоговый 5 Мп 16 кан</t>
   </si>
   <si>
-    <t xml:space="preserve">IP-камера компактная 2Мп</t>
+    <t xml:space="preserve">IP-камера компактная 2Мп(внутр.)</t>
   </si>
   <si>
     <t xml:space="preserve">IP-камера  2Мп с SD-карточкой</t>
@@ -214,10 +214,10 @@
   <dimension ref="A1:C89"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B31" activeCellId="0" sqref="B31"/>
+      <selection pane="topLeft" activeCell="A13" activeCellId="0" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="33.79"/>
   </cols>
